--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -140,78 +140,78 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -552,25 +552,25 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="4" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="21" min="3" max="3"/>
-    <col width="9.796875" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="8" min="5" max="5"/>
-    <col width="22.8984375" customWidth="1" style="10" min="6" max="7"/>
-    <col width="17.69921875" customWidth="1" style="11" min="8" max="9"/>
-    <col width="17.69921875" customWidth="1" style="8" min="10" max="10"/>
-    <col width="11.69921875" customWidth="1" style="19" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" style="4" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="21" width="2.19921875"/>
+    <col customWidth="1" max="3" min="3" style="21" width="2.19921875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="9.796875"/>
+    <col customWidth="1" max="5" min="5" style="8" width="8.796875"/>
+    <col customWidth="1" max="7" min="6" style="10" width="22.8984375"/>
+    <col customWidth="1" max="9" min="8" style="11" width="17.69921875"/>
+    <col customWidth="1" max="10" min="10" style="8" width="17.69921875"/>
+    <col customWidth="1" max="11" min="11" style="19" width="11.69921875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.2" customFormat="1" customHeight="1" s="2" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Id</t>
@@ -627,7 +627,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -666,7 +666,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
@@ -795,7 +795,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
@@ -838,7 +838,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="7" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
@@ -881,7 +881,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
@@ -924,7 +924,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
@@ -967,7 +967,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="14" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="14">
       <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="18" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="18">
       <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="19" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="19">
       <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="20" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="20">
       <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="21" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="21">
       <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="22" ht="96.59999999999999" customHeight="1">
+    <row customHeight="1" ht="96.59999999999999" r="22">
       <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="27" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="55.2" r="27">
       <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="55.2" r="28">
       <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="29">
       <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="30"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -578,8 +578,8 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="B4" pane="bottomLeft" sqref="B4"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
+      <selection activeCell="K34" pane="bottomLeft" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -732,22 +732,22 @@
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>markup</t>
+          <t>Markup</t>
         </is>
       </c>
       <c r="J3" s="12" t="inlineStr">
         <is>
-          <t>tag</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>element</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="L3" s="15" t="n">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>nested</t>
+          <t>Nested</t>
         </is>
       </c>
       <c r="I21" s="8" t="inlineStr">
         <is>
-          <t>hidden</t>
+          <t>Hidden</t>
         </is>
       </c>
       <c r="J21" s="12" t="n"/>
@@ -2013,22 +2013,22 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>browser</t>
+          <t>Browser</t>
         </is>
       </c>
       <c r="I30" s="6" t="inlineStr">
         <is>
-          <t>interpreter</t>
+          <t>Interpreter</t>
         </is>
       </c>
       <c r="J30" s="16" t="inlineStr">
         <is>
-          <t>compiler</t>
+          <t>Compiler</t>
         </is>
       </c>
       <c r="K30" s="7" t="inlineStr">
         <is>
-          <t>assembler</t>
+          <t>Assembler</t>
         </is>
       </c>
       <c r="L30" s="15" t="inlineStr">
@@ -2066,22 +2066,22 @@
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>significance</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="J31" s="16" t="inlineStr">
         <is>
-          <t>importance</t>
+          <t>Importance</t>
         </is>
       </c>
       <c r="K31" s="7" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>Meaning</t>
         </is>
       </c>
       <c r="L31" s="15" t="inlineStr">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -575,11 +575,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
-      <selection activeCell="K34" pane="bottomLeft" sqref="K34"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A27" ySplit="1"/>
+      <selection activeCell="E37" pane="bottomLeft" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -855,6 +855,11 @@
       <c r="B6" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
           <t>B</t>
@@ -872,40 +877,32 @@
       </c>
       <c r="G6" s="8" t="inlineStr">
         <is>
-          <t>Recommended HTML Style</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>LowerCase</t>
-        </is>
-      </c>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>UpperCase</t>
+          <t>Some HTML Tag Attributes are Case Sensitive</t>
+        </is>
+      </c>
+      <c r="H6" s="13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" s="13" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J6" s="12" t="n"/>
       <c r="K6" s="9" t="n"/>
-      <c r="L6" s="15" t="n">
-        <v>43932</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="7">
+    </row>
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>YesNo</t>
-        </is>
-      </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -920,26 +917,26 @@
       </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
-          <t>You can write and read HTML code in any text editor</t>
+          <t>Recommended HTML Style</t>
         </is>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>LowerCase</t>
         </is>
       </c>
       <c r="I7" s="8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>UpperCase</t>
         </is>
       </c>
       <c r="J7" s="12" t="n"/>
       <c r="K7" s="9" t="n"/>
       <c r="L7" s="15" t="n">
-        <v>44054</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="8">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -953,7 +950,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -963,22 +960,22 @@
       </c>
       <c r="F8" s="9" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="G8" s="8" t="inlineStr">
         <is>
-          <t>HTML Elements consists of HTML Documents</t>
+          <t>You can write and read HTML code in any text editor</t>
         </is>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="J8" s="12" t="n"/>
@@ -1016,23 +1013,23 @@
       </c>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>HTML Document consists of HTML Elements</t>
+          <t>HTML Elements consists of HTML Documents</t>
         </is>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="J9" s="12" t="n"/>
       <c r="K9" s="9" t="n"/>
       <c r="L9" s="15" t="n">
-        <v>43932</v>
+        <v>44054</v>
       </c>
     </row>
     <row customHeight="1" ht="27.6" r="10">
@@ -1049,7 +1046,7 @@
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -1064,17 +1061,17 @@
       </c>
       <c r="G10" s="8" t="inlineStr">
         <is>
-          <t>Opening Tag in HTML Element is optional</t>
+          <t>HTML Document consists of HTML Elements</t>
         </is>
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="J10" s="12" t="n"/>
@@ -1112,17 +1109,17 @@
       </c>
       <c r="G11" s="8" t="inlineStr">
         <is>
-          <t>Closing Tag in HTML Element is optional</t>
+          <t>Opening Tag in HTML Element is optional</t>
         </is>
       </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="J11" s="12" t="n"/>
@@ -1160,7 +1157,7 @@
       </c>
       <c r="G12" s="8" t="inlineStr">
         <is>
-          <t>Tag Attributes in HTML Element is optional</t>
+          <t>Closing Tag in HTML Element is optional</t>
         </is>
       </c>
       <c r="H12" s="8" t="inlineStr">
@@ -1208,7 +1205,7 @@
       </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
-          <t>Content in HTML Element is optional</t>
+          <t>Tag Attributes in HTML Element is optional</t>
         </is>
       </c>
       <c r="H13" s="8" t="inlineStr">
@@ -1227,13 +1224,18 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="14">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
           <t>B</t>
@@ -1246,34 +1248,26 @@
       </c>
       <c r="F14" s="9" t="inlineStr">
         <is>
-          <t>Empty Element</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="G14" s="8" t="inlineStr">
         <is>
-          <t>Empty HTML Element</t>
+          <t>Content in HTML Element is optional</t>
         </is>
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
-          <t>Without Content and Closing Tag</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr">
         <is>
-          <t>Without Content, Tag Attributes and Closing Tag</t>
-        </is>
-      </c>
-      <c r="J14" s="12" t="inlineStr">
-        <is>
-          <t>Without Content</t>
-        </is>
-      </c>
-      <c r="K14" s="9" t="inlineStr">
-        <is>
-          <t>Without Closing Tag</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J14" s="12" t="n"/>
+      <c r="K14" s="9" t="n"/>
       <c r="L14" s="15" t="n">
         <v>43932</v>
       </c>
@@ -1285,11 +1279,6 @@
       <c r="B15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="inlineStr">
-        <is>
-          <t>YesNo</t>
-        </is>
-      </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
           <t>B</t>
@@ -1307,28 +1296,34 @@
       </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
-          <t>Empty HTML Element must be without Tag Attributes</t>
+          <t>Empty HTML Element</t>
         </is>
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Without Content and Closing Tag</t>
         </is>
       </c>
       <c r="I15" s="8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J15" s="12" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="15" t="inlineStr">
-        <is>
-          <t>14/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="16">
+          <t>Without Content, Tag Attributes and Closing Tag</t>
+        </is>
+      </c>
+      <c r="J15" s="12" t="inlineStr">
+        <is>
+          <t>Without Content</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>Without Closing Tag</t>
+        </is>
+      </c>
+      <c r="L15" s="15" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="16">
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
@@ -1342,7 +1337,7 @@
       </c>
       <c r="D16" s="11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E16" s="8" t="inlineStr">
@@ -1357,23 +1352,25 @@
       </c>
       <c r="G16" s="8" t="inlineStr">
         <is>
-          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+          <t>Empty HTML Element must be without Tag Attributes</t>
         </is>
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="J16" s="12" t="n"/>
       <c r="K16" s="9" t="n"/>
-      <c r="L16" s="15" t="n">
-        <v>43932</v>
+      <c r="L16" s="15" t="inlineStr">
+        <is>
+          <t>14/12/20</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="27.6" r="17">
@@ -1405,17 +1402,17 @@
       </c>
       <c r="G17" s="8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
         </is>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="J17" s="12" t="n"/>
@@ -1448,12 +1445,12 @@
       </c>
       <c r="F18" s="9" t="inlineStr">
         <is>
-          <t>Nested Element</t>
+          <t>Empty Element</t>
         </is>
       </c>
       <c r="G18" s="8" t="inlineStr">
         <is>
-          <t>Empty Element can contain Elements inside it</t>
+          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
         </is>
       </c>
       <c r="H18" s="8" t="inlineStr">
@@ -1472,7 +1469,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="19">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
@@ -1501,17 +1498,17 @@
       </c>
       <c r="G19" s="8" t="inlineStr">
         <is>
-          <t>Non Empty Element can contain any number of Elements inside it</t>
+          <t>Empty Element can contain Elements inside it</t>
         </is>
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="J19" s="12" t="n"/>
@@ -1527,9 +1524,14 @@
       <c r="B20" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
       <c r="D20" s="11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -1544,29 +1546,21 @@
       </c>
       <c r="G20" s="8" t="inlineStr">
         <is>
-          <t>HTML Parent Element have a ***** Element within it</t>
+          <t>Non Empty Element can contain any number of Elements inside it</t>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>Nested</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
         <is>
-          <t>Hidden</t>
-        </is>
-      </c>
-      <c r="J20" s="12" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="K20" s="9" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J20" s="12" t="n"/>
+      <c r="K20" s="9" t="n"/>
       <c r="L20" s="15" t="n">
         <v>43932</v>
       </c>
@@ -1595,7 +1589,7 @@
       </c>
       <c r="G21" s="8" t="inlineStr">
         <is>
-          <t>HTML Child Element is ***** within other Element</t>
+          <t>HTML Parent Element have a ***** Element within it</t>
         </is>
       </c>
       <c r="H21" s="8" t="inlineStr">
@@ -1608,13 +1602,21 @@
           <t>Hidden</t>
         </is>
       </c>
-      <c r="J21" s="12" t="n"/>
-      <c r="K21" s="9" t="n"/>
+      <c r="J21" s="12" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
       <c r="L21" s="15" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row customHeight="1" ht="41.4" r="22">
       <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
@@ -1633,22 +1635,22 @@
       </c>
       <c r="F22" s="9" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Nested Element</t>
         </is>
       </c>
       <c r="G22" s="8" t="inlineStr">
         <is>
-          <t>HTML Element Block Level</t>
+          <t>HTML Child Element is ***** within other Element</t>
         </is>
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+          <t>Nested</t>
         </is>
       </c>
       <c r="I22" s="8" t="inlineStr">
         <is>
-          <t>Takes only the space it needs (&lt;a&gt;)</t>
+          <t>Hidden</t>
         </is>
       </c>
       <c r="J22" s="12" t="n"/>
@@ -1657,7 +1659,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="23">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" s="3" t="n">
         <v>22</v>
       </c>
@@ -1681,17 +1683,17 @@
       </c>
       <c r="G23" s="8" t="inlineStr">
         <is>
-          <t>HTML Element Inline Level</t>
+          <t>HTML Element Block Level</t>
         </is>
       </c>
       <c r="H23" s="8" t="inlineStr">
         <is>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
           <t>Takes only the space it needs (&lt;a&gt;)</t>
-        </is>
-      </c>
-      <c r="I23" s="8" t="inlineStr">
-        <is>
-          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
         </is>
       </c>
       <c r="J23" s="12" t="n"/>
@@ -1707,11 +1709,6 @@
       <c r="B24" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="11" t="inlineStr">
-        <is>
-          <t>YesNo</t>
-        </is>
-      </c>
       <c r="D24" s="11" t="inlineStr">
         <is>
           <t>B</t>
@@ -1729,25 +1726,23 @@
       </c>
       <c r="G24" s="8" t="inlineStr">
         <is>
-          <t>HTML Block Level is rendered with a line break before and after</t>
+          <t>HTML Element Inline Level</t>
         </is>
       </c>
       <c r="H24" s="8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Takes only the space it needs (&lt;a&gt;)</t>
         </is>
       </c>
       <c r="I24" s="8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Occupies 100% of the available width (&lt;p&gt;)</t>
         </is>
       </c>
       <c r="J24" s="12" t="n"/>
       <c r="K24" s="9" t="n"/>
-      <c r="L24" s="15" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
+      <c r="L24" s="15" t="n">
+        <v>43932</v>
       </c>
     </row>
     <row customHeight="1" ht="41.4" r="25">
@@ -1779,17 +1774,17 @@
       </c>
       <c r="G25" s="8" t="inlineStr">
         <is>
-          <t>HTML Inline Level is rendered with a line break before and after</t>
+          <t>HTML Block Level is rendered with a line break before and after</t>
         </is>
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="I25" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="J25" s="12" t="n"/>
@@ -1800,7 +1795,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
+    <row customHeight="1" ht="41.4" r="26">
       <c r="A26" s="3" t="n">
         <v>25</v>
       </c>
@@ -1817,33 +1812,37 @@
           <t>B</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>HTML</t>
-        </is>
-      </c>
-      <c r="F26" s="7" t="inlineStr">
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>Levels</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt; is a Block Level Tag</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>HTML Inline Level is rendered with a line break before and after</t>
+        </is>
+      </c>
+      <c r="H26" s="8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L26" s="15" t="n">
-        <v>44054</v>
+      <c r="J26" s="12" t="n"/>
+      <c r="K26" s="9" t="n"/>
+      <c r="L26" s="15" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1875,17 +1874,17 @@
       </c>
       <c r="G27" s="6" t="inlineStr">
         <is>
-          <t>&lt;p&gt; is an Inline Level Tag</t>
+          <t>&lt;p&gt; is a Block Level Tag</t>
         </is>
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="L27" s="15" t="n">
@@ -1921,7 +1920,7 @@
       </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt; is a Block Level Tag</t>
+          <t>&lt;p&gt; is an Inline Level Tag</t>
         </is>
       </c>
       <c r="H28" s="6" t="inlineStr">
@@ -1967,30 +1966,35 @@
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt; is an Inline Level Tag</t>
+          <t>&lt;b&gt; is a Block Level Tag</t>
         </is>
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
+        <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="I29" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="L29" s="15" t="n">
         <v>44054</v>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="30">
+    <row r="30">
       <c r="A30" s="3" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="C30" s="11" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
       <c r="D30" s="11" t="inlineStr">
         <is>
           <t>B</t>
@@ -2003,38 +2007,26 @@
       </c>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
         <is>
-          <t>HTML Tag holds instructions to the ***** about the meaning of the text</t>
+          <t>&lt;b&gt; is an Inline Level Tag</t>
         </is>
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="I30" s="6" t="inlineStr">
         <is>
-          <t>Interpreter</t>
-        </is>
-      </c>
-      <c r="J30" s="16" t="inlineStr">
-        <is>
-          <t>Compiler</t>
-        </is>
-      </c>
-      <c r="K30" s="7" t="inlineStr">
-        <is>
-          <t>Assembler</t>
-        </is>
-      </c>
-      <c r="L30" s="15" t="inlineStr">
-        <is>
-          <t>15/12/20</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L30" s="15" t="n">
+        <v>44054</v>
       </c>
     </row>
     <row customHeight="1" ht="55.2" r="31">
@@ -2061,27 +2053,27 @@
       </c>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t>HTML Tags are embedded into each other to indicate the document's organization</t>
+          <t>HTML Tag holds instructions to the ***** about the meaning of the text</t>
         </is>
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Browser</t>
         </is>
       </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>Significance</t>
+          <t>Interpreter</t>
         </is>
       </c>
       <c r="J31" s="16" t="inlineStr">
         <is>
-          <t>Importance</t>
+          <t>Compiler</t>
         </is>
       </c>
       <c r="K31" s="7" t="inlineStr">
         <is>
-          <t>Meaning</t>
+          <t>Assembler</t>
         </is>
       </c>
       <c r="L31" s="15" t="inlineStr">
@@ -2090,55 +2082,108 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row customHeight="1" ht="55.2" r="32">
       <c r="A32" s="3" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="D32" s="11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>HTML Tags are embedded into each other to indicate the document's organization</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="I32" s="6" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="J32" s="16" t="inlineStr">
+        <is>
+          <t>Importance</t>
+        </is>
+      </c>
+      <c r="K32" s="7" t="inlineStr">
+        <is>
+          <t>Meaning</t>
+        </is>
+      </c>
+      <c r="L32" s="15" t="inlineStr">
+        <is>
+          <t>15/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="33">
+      <c r="A33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>YesNo</t>
         </is>
       </c>
-      <c r="D32" s="11" t="inlineStr">
+      <c r="D33" s="11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>HTML</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
         <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="G32" s="6" t="inlineStr">
+      <c r="G33" s="6" t="inlineStr">
         <is>
           <t>Browsers display HTML Tags</t>
         </is>
       </c>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="H33" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L32" s="15" t="inlineStr">
+      <c r="L33" s="15" t="inlineStr">
         <is>
           <t>15/12/20</t>
         </is>
       </c>
     </row>
-    <row r="33"/>
+    <row r="34"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16CA23C-CC73-4206-9D49-181D3BC5EBAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5C960-FDF8-4664-9105-E050DD5E752F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,8 +520,7 @@
     <col min="3" max="3" width="6.296875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="37.796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.69921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5C960-FDF8-4664-9105-E050DD5E752F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980B9E5-DC57-4105-87BE-627AA966A0C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>P</t>
@@ -506,25 +503,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="2.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.19921875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.69921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,56 +530,53 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980B9E5-DC57-4105-87BE-627AA966A0C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309E9FB-6E9A-44D3-817B-8D56F13AAF53}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>P</t>
@@ -42,6 +39,9 @@
   <si>
     <t>Wrong Answer</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +54,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -62,7 +62,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -507,78 +507,114 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="6"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309E9FB-6E9A-44D3-817B-8D56F13AAF53}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43948A50-EB33-4FCA-B1EA-16990AC212FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -62,7 +59,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -214,14 +211,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,20 +504,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.1796875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,44 +533,44 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43948A50-EB33-4FCA-B1EA-16990AC212FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9936A-43F9-4F6F-B803-F1D50FA42F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,12 +504,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
     <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
     <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9936A-43F9-4F6F-B803-F1D50FA42F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB8C85-0422-4BAE-820E-67AE05A03B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,10 +214,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB8C85-0422-4BAE-820E-67AE05A03B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5428E36-9921-4CFE-90A4-A46F90FE3DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -540,40 +540,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
